--- a/src/data/interface.xlsx
+++ b/src/data/interface.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>case_id</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>login</t>
   </si>
   <si>
     <t>case2</t>
@@ -98,9 +101,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -121,35 +124,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,29 +199,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -201,9 +206,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,54 +223,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,19 +276,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,13 +360,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,145 +420,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,15 +467,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -500,21 +494,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -524,13 +503,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,17 +533,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,7 +1075,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1127,7 +1130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1143,62 +1146,83 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/interface.xlsx
+++ b/src/data/interface.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>case_id</t>
   </si>
@@ -63,27 +63,36 @@
     <t>y</t>
   </si>
   <si>
+    <t>http://www.weather.com.cn/data/cityinfo/101010100.html</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>case2</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>case3</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>http://dev.api.tianbaows.com/lianfeng/search</t>
+  </si>
+  <si>
     <t>post</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>case2</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>case3</t>
-  </si>
-  <si>
     <t>case4</t>
   </si>
   <si>
@@ -94,6 +103,9 @@
   </si>
   <si>
     <t>case7</t>
+  </si>
+  <si>
+    <t>seven</t>
   </si>
 </sst>
 </file>
@@ -103,10 +115,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +135,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF505050"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -130,8 +156,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,13 +166,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,25 +179,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,8 +208,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,9 +224,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,47 +278,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,181 +300,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +485,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,32 +551,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,17 +585,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -575,10 +593,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,141 +605,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,7 +1099,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1140,92 +1164,126 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>21</v>
       </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
       </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://www.weather.com.cn/data/cityinfo/101010100.html" tooltip="http://www.weather.com.cn/data/cityinfo/101010100.html"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://www.weather.com.cn/data/cityinfo/101010100.html" tooltip="http://www.weather.com.cn/data/cityinfo/101010100.html"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
